--- a/数据整理/stocks/港股/03996-中国能源建设.xlsx
+++ b/数据整理/stocks/港股/03996-中国能源建设.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03996-中国能源建设.xlsx
+++ b/数据整理/stocks/港股/03996-中国能源建设.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03996-中国能源建设.xlsx
+++ b/数据整理/stocks/港股/03996-中国能源建设.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -646,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1155</t>
+          <t>0.1195</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -684,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0397</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -778,26 +730,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>81.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1195</t>
+          <t>0.1155</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -816,26 +768,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>81.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +812,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,14 +852,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -896,30 +890,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03996-中国能源建设.xlsx
+++ b/数据整理/stocks/港股/03996-中国能源建设.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -598,22 +615,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>84.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1195</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -636,22 +653,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>84.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -730,26 +747,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1155</t>
+          <t>0.1195</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -768,26 +785,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0397</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -852,6 +869,138 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>004266</t>
         </is>
       </c>

--- a/数据整理/stocks/港股/03996-中国能源建设.xlsx
+++ b/数据整理/stocks/港股/03996-中国能源建设.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -615,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.28</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -653,26 +670,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.28</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0354</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -747,22 +764,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>84.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1195</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -785,22 +802,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>84.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -879,26 +896,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1155</t>
+          <t>0.1195</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -917,26 +934,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0397</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1001,6 +1018,138 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>004266</t>
         </is>
       </c>
